--- a/data_analyzed/Energy (kcal)/Energy (kcal)_games.xlsx
+++ b/data_analyzed/Energy (kcal)/Energy (kcal)_games.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:AF51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,114 +441,236 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Alexis Rainey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Balduzzi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Burns</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Curley</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Daud</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>DeLeo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Diedrichsen</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Doyle</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Espona</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Ferriolo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Forman</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Hackman</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Hartsch</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Holzman</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>LaCroix</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Larripa</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>McCann</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>McFadden</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Pla</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Reilly</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Ricci</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Rodrigo</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Smyth</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Streib</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Tollaksen</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Wasyliw</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Yanovich</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44799</v>
       </c>
       <c r="B2" t="n">
+        <v>515.8327</v>
+      </c>
+      <c r="C2" t="n">
         <v>862.4882</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>323.6675</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>278.5207</v>
-      </c>
+      <c r="E2" t="n">
+        <v>307.484</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>676.3921</v>
+      </c>
       <c r="J2" t="n">
+        <v>789.6185</v>
+      </c>
+      <c r="K2" t="n">
+        <v>278.5207</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>682.9978</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>837.3792</v>
+      </c>
+      <c r="P2" t="n">
+        <v>333.7102</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>637.2115</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
         <v>538.803</v>
       </c>
-      <c r="K2" t="n">
+      <c r="U2" t="n">
+        <v>501.1879</v>
+      </c>
+      <c r="V2" t="n">
         <v>295.6257</v>
       </c>
-      <c r="L2" t="n">
+      <c r="W2" t="n">
+        <v>637.0834</v>
+      </c>
+      <c r="X2" t="n">
         <v>752.5102000000001</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="Y2" t="n">
+        <v>389.8894</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
         <v>925.3143</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>943.34</v>
+      </c>
+      <c r="AE2" t="n">
         <v>261.452</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>674.0221</v>
       </c>
     </row>
     <row r="3">
@@ -556,35 +678,75 @@
         <v>44801</v>
       </c>
       <c r="B3" t="n">
+        <v>903.8433</v>
+      </c>
+      <c r="C3" t="n">
         <v>1119.291</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>300.403</v>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>949.9286</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>1039.228</v>
+      </c>
       <c r="J3" t="n">
+        <v>872.7581</v>
+      </c>
+      <c r="K3" t="n">
+        <v>949.9286</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>791.4157</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>1127.9657</v>
+      </c>
+      <c r="P3" t="n">
+        <v>382.9721</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1079.1226</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
         <v>597.6937</v>
       </c>
-      <c r="K3" t="n">
+      <c r="U3" t="n">
+        <v>863.506</v>
+      </c>
+      <c r="V3" t="n">
         <v>363.0957</v>
       </c>
-      <c r="L3" t="n">
+      <c r="W3" t="n">
+        <v>666.6027</v>
+      </c>
+      <c r="X3" t="n">
         <v>996.4064</v>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="Y3" t="n">
+        <v>286.5545</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
         <v>958.6557</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>1167.7718</v>
+      </c>
+      <c r="AE3" t="n">
         <v>214.7176</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>592.1178</v>
       </c>
     </row>
     <row r="4">
@@ -592,35 +754,75 @@
         <v>44804</v>
       </c>
       <c r="B4" t="n">
+        <v>551.6328999999999</v>
+      </c>
+      <c r="C4" t="n">
         <v>1051.9334</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>315.8608</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>64.30119999999999</v>
-      </c>
+      <c r="E4" t="n">
+        <v>314.4172</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>1269.3453</v>
+      </c>
       <c r="J4" t="n">
-        <v>622.6953</v>
+        <v>796.4081</v>
       </c>
       <c r="K4" t="n">
-        <v>270.9593</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1056.6116</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>1070.9878</v>
-      </c>
+        <v>64.30119999999999</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1031.66</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
+        <v>288.8544</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1118.2932</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>622.6953</v>
+      </c>
+      <c r="U4" t="n">
+        <v>940.0018</v>
+      </c>
+      <c r="V4" t="n">
+        <v>270.9593</v>
+      </c>
+      <c r="W4" t="n">
+        <v>831.3628</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1056.6116</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>267.1049</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
+        <v>1070.9878</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>1205.1878</v>
+      </c>
+      <c r="AE4" t="n">
         <v>231.0802</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>652.4185</v>
       </c>
     </row>
     <row r="5">
@@ -628,35 +830,77 @@
         <v>44808</v>
       </c>
       <c r="B5" t="n">
+        <v>593.4609</v>
+      </c>
+      <c r="C5" t="n">
         <v>1038.1899</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>281.0895</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>398.2893</v>
-      </c>
+      <c r="E5" t="n">
+        <v>435.9331</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1182.9899</v>
+      </c>
       <c r="J5" t="n">
+        <v>787.1395</v>
+      </c>
+      <c r="K5" t="n">
+        <v>398.2893</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>921.4841</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>1128.1874</v>
+      </c>
+      <c r="P5" t="n">
+        <v>355.9274</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1021.0001</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>1036.78</v>
       </c>
-      <c r="K5" t="n">
+      <c r="U5" t="n">
+        <v>893.1294</v>
+      </c>
+      <c r="V5" t="n">
         <v>352.9013</v>
       </c>
-      <c r="L5" t="n">
+      <c r="W5" t="n">
+        <v>575.4148</v>
+      </c>
+      <c r="X5" t="n">
         <v>963.7557</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="Y5" t="n">
+        <v>499.1692</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
         <v>863.2164</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>1222.2222</v>
+      </c>
+      <c r="AE5" t="n">
         <v>173.4283</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>773.1482999999999</v>
       </c>
     </row>
     <row r="6">
@@ -664,313 +908,685 @@
         <v>44813</v>
       </c>
       <c r="B6" t="n">
+        <v>300.8162</v>
+      </c>
+      <c r="C6" t="n">
         <v>1118.4579</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>348.5831</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>853.3625</v>
-      </c>
+      <c r="E6" t="n">
+        <v>402.81</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1103.542</v>
+      </c>
       <c r="J6" t="n">
+        <v>931.4971</v>
+      </c>
+      <c r="K6" t="n">
+        <v>853.3625</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1080.9219</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>995.4703</v>
+      </c>
+      <c r="P6" t="n">
+        <v>373.3255</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1170.4438</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>900.7976</v>
       </c>
-      <c r="K6" t="n">
+      <c r="U6" t="n">
+        <v>903.7859999999999</v>
+      </c>
+      <c r="V6" t="n">
         <v>1093.1563</v>
       </c>
-      <c r="L6" t="n">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>1074.4842</v>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="Y6" t="n">
+        <v>314.0325</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
         <v>862.7267000000001</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="n">
+        <v>1332.2435</v>
+      </c>
+      <c r="AE6" t="n">
         <v>273.0086</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>44815</v>
       </c>
       <c r="B7" t="n">
+        <v>486.6181</v>
+      </c>
+      <c r="C7" t="n">
         <v>1096.1795</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>336.8548</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>475.5274</v>
-      </c>
+      <c r="E7" t="n">
+        <v>382.2367</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>1205.0388</v>
+      </c>
       <c r="J7" t="n">
+        <v>904.8488</v>
+      </c>
+      <c r="K7" t="n">
+        <v>475.5274</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>725.4524</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>1182.6849</v>
+      </c>
+      <c r="P7" t="n">
+        <v>377.7784</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1095.1859</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>1306.5393</v>
       </c>
-      <c r="K7" t="n">
+      <c r="U7" t="n">
+        <v>743.0585</v>
+      </c>
+      <c r="V7" t="n">
         <v>1272.7803</v>
       </c>
-      <c r="L7" t="n">
+      <c r="W7" t="n">
+        <v>806.1747</v>
+      </c>
+      <c r="X7" t="n">
         <v>1021.1618</v>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="Y7" t="n">
+        <v>338.3695</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="n">
         <v>625.8964</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>211.8887</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1162.2905</v>
+      </c>
+      <c r="AE7" t="n">
         <v>439.505</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>44820</v>
       </c>
       <c r="B8" t="n">
+        <v>587.8287</v>
+      </c>
+      <c r="C8" t="n">
         <v>1484.8698</v>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>419.3953</v>
-      </c>
+      <c r="E8" t="n">
+        <v>559.5854</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>1629.6809</v>
+      </c>
       <c r="J8" t="n">
+        <v>906.0076</v>
+      </c>
+      <c r="K8" t="n">
+        <v>419.3953</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>42.2237</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>860.0722</v>
+      </c>
+      <c r="P8" t="n">
+        <v>505.6237</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1578.457</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>1585.2891</v>
       </c>
-      <c r="K8" t="n">
+      <c r="U8" t="n">
+        <v>924.1900000000001</v>
+      </c>
+      <c r="V8" t="n">
         <v>1086.4416</v>
       </c>
-      <c r="L8" t="n">
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="n">
         <v>1344.4623</v>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="Y8" t="n">
+        <v>409.5144</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="n">
         <v>1508.6343</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>176.2452</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1686.8277</v>
+      </c>
+      <c r="AE8" t="n">
         <v>367.0769</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>44822</v>
       </c>
       <c r="B9" t="n">
+        <v>7.2642</v>
+      </c>
+      <c r="C9" t="n">
         <v>1138.691</v>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>399.0561</v>
-      </c>
+      <c r="E9" t="n">
+        <v>410.8765</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>915.0335</v>
+      </c>
       <c r="J9" t="n">
+        <v>642.8425</v>
+      </c>
+      <c r="K9" t="n">
+        <v>399.0561</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>670.5889</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>852.3036</v>
+      </c>
+      <c r="P9" t="n">
+        <v>398.2763</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1225.9654</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>1173.9557</v>
       </c>
-      <c r="K9" t="n">
+      <c r="U9" t="n">
+        <v>991.251</v>
+      </c>
+      <c r="V9" t="n">
         <v>878.6508</v>
       </c>
-      <c r="L9" t="n">
+      <c r="W9" t="n">
+        <v>949.614</v>
+      </c>
+      <c r="X9" t="n">
         <v>1007.1866</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="Y9" t="n">
+        <v>406.2668</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="n">
         <v>1060.3723</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>230.1995</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1299.8817</v>
+      </c>
+      <c r="AE9" t="n">
         <v>329.3514</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>44827</v>
       </c>
       <c r="B10" t="n">
+        <v>1013.6966</v>
+      </c>
+      <c r="C10" t="n">
         <v>1199.4228</v>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>313.049</v>
-      </c>
+      <c r="E10" t="n">
+        <v>345.8911</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>1060.7543</v>
+      </c>
       <c r="J10" t="n">
+        <v>686.4662</v>
+      </c>
+      <c r="K10" t="n">
+        <v>313.049</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>219.6383</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>825.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>338.6274</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1027.8452</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>1289.2839</v>
       </c>
-      <c r="K10" t="n">
+      <c r="U10" t="n">
+        <v>1012.9252</v>
+      </c>
+      <c r="V10" t="n">
         <v>506.526</v>
       </c>
-      <c r="L10" t="n">
+      <c r="W10" t="n">
+        <v>754.1707</v>
+      </c>
+      <c r="X10" t="n">
         <v>1020.7588</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="Y10" t="n">
+        <v>299.5441</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
         <v>1064.4756</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>995.3593</v>
+      </c>
+      <c r="AE10" t="n">
         <v>285.2609</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>44829</v>
       </c>
       <c r="B11" t="n">
+        <v>505.0929</v>
+      </c>
+      <c r="C11" t="n">
         <v>1252.4546</v>
       </c>
-      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>392.2356</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>1031.2582</v>
+      </c>
       <c r="J11" t="n">
+        <v>836.6694</v>
+      </c>
+      <c r="K11" t="n">
+        <v>392.2356</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>479.0533</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>1309.1333</v>
+      </c>
+      <c r="P11" t="n">
+        <v>408.5436</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1278.8508</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>1498.1862</v>
       </c>
-      <c r="K11" t="n">
+      <c r="U11" t="n">
+        <v>729.2371000000001</v>
+      </c>
+      <c r="V11" t="n">
         <v>1179.5874</v>
       </c>
-      <c r="L11" t="n">
+      <c r="W11" t="n">
+        <v>1082.1656</v>
+      </c>
+      <c r="X11" t="n">
         <v>1089.3373</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="Y11" t="n">
+        <v>370.4338</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="n">
         <v>1212.2919</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>245.0046</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1274.6389</v>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>44834</v>
       </c>
       <c r="B12" t="n">
+        <v>695.9023</v>
+      </c>
+      <c r="C12" t="n">
         <v>1258.5756</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>435.4925</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>363.557</v>
-      </c>
+      <c r="E12" t="n">
+        <v>414.7088</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>771.3398</v>
+      </c>
       <c r="J12" t="n">
+        <v>780.491</v>
+      </c>
+      <c r="K12" t="n">
+        <v>363.557</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>495.0902</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>1326.3103</v>
+      </c>
+      <c r="P12" t="n">
+        <v>388.6394</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1153.2698</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
         <v>1328.214</v>
       </c>
-      <c r="K12" t="n">
+      <c r="U12" t="n">
+        <v>714.0051999999999</v>
+      </c>
+      <c r="V12" t="n">
         <v>1168.375</v>
       </c>
-      <c r="L12" t="n">
+      <c r="W12" t="n">
+        <v>1159.1516</v>
+      </c>
+      <c r="X12" t="n">
         <v>1085.4303</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="Y12" t="n">
+        <v>370.5275</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
         <v>1080.7257</v>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>177.1118</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1253.8261</v>
+      </c>
+      <c r="AE12" t="n">
         <v>413.5664</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>44836</v>
       </c>
       <c r="B13" t="n">
+        <v>1253.9339</v>
+      </c>
+      <c r="C13" t="n">
         <v>1207.9088</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>468.8723</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>433.0257</v>
-      </c>
+      <c r="E13" t="n">
+        <v>472.2872</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>1340.0043</v>
+      </c>
       <c r="J13" t="n">
+        <v>933.8356</v>
+      </c>
+      <c r="K13" t="n">
+        <v>433.0257</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>793.3937</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>976.0925</v>
+      </c>
+      <c r="P13" t="n">
+        <v>458.7321</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1319.7381</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
         <v>1481.9312</v>
       </c>
-      <c r="K13" t="n">
+      <c r="U13" t="n">
+        <v>840.2961</v>
+      </c>
+      <c r="V13" t="n">
         <v>626.4186999999999</v>
       </c>
-      <c r="L13" t="n">
+      <c r="W13" t="n">
+        <v>588.7034</v>
+      </c>
+      <c r="X13" t="n">
         <v>1089.7182</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="Y13" t="n">
+        <v>605.0691</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
         <v>1095.0279</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
+        <v>283.2068</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1356.6491</v>
+      </c>
+      <c r="AE13" t="n">
         <v>295.6003</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>44841</v>
       </c>
       <c r="B14" t="n">
+        <v>1308.7677</v>
+      </c>
+      <c r="C14" t="n">
         <v>1126.817</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>472.3977</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>414.0807</v>
-      </c>
+      <c r="E14" t="n">
+        <v>341.417</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>1168.0753</v>
+      </c>
       <c r="J14" t="n">
+        <v>686.3973</v>
+      </c>
+      <c r="K14" t="n">
+        <v>414.0807</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>576.657</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>1212.059</v>
+      </c>
+      <c r="P14" t="n">
+        <v>385.6395</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1029.7383</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
         <v>1279.7464</v>
       </c>
-      <c r="K14" t="n">
+      <c r="U14" t="n">
+        <v>742.4049</v>
+      </c>
+      <c r="V14" t="n">
         <v>513.4664</v>
       </c>
-      <c r="L14" t="n">
+      <c r="W14" t="n">
+        <v>736.1638</v>
+      </c>
+      <c r="X14" t="n">
         <v>1036.7432</v>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="Y14" t="n">
+        <v>390.1562</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
         <v>995.1318</v>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="n">
+        <v>193.5378</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1254.581</v>
+      </c>
+      <c r="AE14" t="n">
         <v>326.364</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>372.7968</v>
       </c>
     </row>
     <row r="15">
@@ -978,35 +1594,79 @@
         <v>44843</v>
       </c>
       <c r="B15" t="n">
+        <v>1182.061</v>
+      </c>
+      <c r="C15" t="n">
         <v>1173.5023</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>405.7811</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>389.6238</v>
-      </c>
+      <c r="E15" t="n">
+        <v>401.4425</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>846.6541</v>
+      </c>
       <c r="J15" t="n">
+        <v>547.6213</v>
+      </c>
+      <c r="K15" t="n">
+        <v>389.6238</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>509.5535</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>1397.5336</v>
+      </c>
+      <c r="P15" t="n">
+        <v>412.7648</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1111.6659</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
         <v>1417.8506</v>
       </c>
-      <c r="K15" t="n">
+      <c r="U15" t="n">
+        <v>1052.725</v>
+      </c>
+      <c r="V15" t="n">
         <v>584.4953</v>
       </c>
-      <c r="L15" t="n">
+      <c r="W15" t="n">
+        <v>1030.9679</v>
+      </c>
+      <c r="X15" t="n">
         <v>1031.857</v>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="Y15" t="n">
+        <v>354.3594</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
         <v>1044.0166</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="n">
+        <v>293.3557</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1258.8412</v>
+      </c>
+      <c r="AE15" t="n">
         <v>285.914</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>406.2691</v>
       </c>
     </row>
     <row r="16">
@@ -1014,71 +1674,157 @@
         <v>44848</v>
       </c>
       <c r="B16" t="n">
+        <v>741.2406</v>
+      </c>
+      <c r="C16" t="n">
         <v>1080.1717</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>385.2946</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>422.8502</v>
-      </c>
+      <c r="E16" t="n">
+        <v>371.4193</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>1106.2993</v>
+      </c>
       <c r="J16" t="n">
+        <v>592.9613000000001</v>
+      </c>
+      <c r="K16" t="n">
+        <v>422.8502</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>533.3982999999999</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>1130.3447</v>
+      </c>
+      <c r="P16" t="n">
+        <v>315.9661</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>196.1803</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
         <v>1267.6787</v>
       </c>
-      <c r="K16" t="n">
+      <c r="U16" t="n">
+        <v>856.0700000000001</v>
+      </c>
+      <c r="V16" t="n">
         <v>483.6392</v>
       </c>
-      <c r="L16" t="n">
+      <c r="W16" t="n">
+        <v>716.3092</v>
+      </c>
+      <c r="X16" t="n">
         <v>918.8019</v>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="Y16" t="n">
+        <v>303.631</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
         <v>1025.5886</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="n">
+        <v>227.1913</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1081.7156</v>
+      </c>
+      <c r="AE16" t="n">
         <v>254.3908</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>427.9533</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>44850</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
         <v>1146.5383</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>422.1554</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>152.9054</v>
-      </c>
+      <c r="E17" t="n">
+        <v>466.4197</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>454.2656</v>
+      </c>
       <c r="J17" t="n">
+        <v>959.898</v>
+      </c>
+      <c r="K17" t="n">
+        <v>152.9054</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>301.8922</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>1195.5321</v>
+      </c>
+      <c r="P17" t="n">
+        <v>321.2704</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1168.848</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
         <v>1383.7261</v>
       </c>
-      <c r="K17" t="n">
+      <c r="U17" t="n">
+        <v>945.9927</v>
+      </c>
+      <c r="V17" t="n">
         <v>519.1541</v>
       </c>
-      <c r="L17" t="n">
+      <c r="W17" t="n">
+        <v>1340.3366</v>
+      </c>
+      <c r="X17" t="n">
         <v>934.2846</v>
       </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="Y17" t="n">
+        <v>340.1098</v>
+      </c>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="n">
         <v>1126.7613</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="n">
+        <v>196.9035</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1261.1103</v>
+      </c>
+      <c r="AE17" t="n">
         <v>428.6146</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>305.2857</v>
       </c>
     </row>
     <row r="18">
@@ -1086,35 +1832,79 @@
         <v>44855</v>
       </c>
       <c r="B18" t="n">
+        <v>1148.0014</v>
+      </c>
+      <c r="C18" t="n">
         <v>1090.7774</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>305.7878</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>277.0025</v>
-      </c>
+      <c r="E18" t="n">
+        <v>294.9017</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>733.378</v>
+      </c>
       <c r="J18" t="n">
+        <v>536.4544</v>
+      </c>
+      <c r="K18" t="n">
+        <v>277.0025</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>352.6644</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>1064.0506</v>
+      </c>
+      <c r="P18" t="n">
+        <v>286.3454</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>899.9351</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
         <v>1274.0291</v>
       </c>
-      <c r="K18" t="n">
+      <c r="U18" t="n">
+        <v>622.1420000000001</v>
+      </c>
+      <c r="V18" t="n">
         <v>261.1671</v>
       </c>
-      <c r="L18" t="n">
+      <c r="W18" t="n">
+        <v>1292.1639</v>
+      </c>
+      <c r="X18" t="n">
         <v>974.8736</v>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="Y18" t="n">
+        <v>277.3767</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
         <v>972.9023999999999</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>128.6765</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1158.8915</v>
+      </c>
+      <c r="AE18" t="n">
         <v>264.8677</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>376.7794</v>
       </c>
     </row>
     <row r="19">
@@ -1122,35 +1912,77 @@
         <v>44862</v>
       </c>
       <c r="B19" t="n">
+        <v>1076.0922</v>
+      </c>
+      <c r="C19" t="n">
         <v>1256.7502</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>395.5656</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>646.8662</v>
-      </c>
+      <c r="E19" t="n">
+        <v>478.5175</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>1075.0054</v>
+      </c>
       <c r="J19" t="n">
+        <v>392.3444</v>
+      </c>
+      <c r="K19" t="n">
+        <v>646.8662</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>133.1204</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>1411.8164</v>
+      </c>
+      <c r="P19" t="n">
+        <v>360.7531</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1046.0568</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
         <v>1427.081</v>
       </c>
-      <c r="K19" t="n">
+      <c r="U19" t="n">
+        <v>690.4594</v>
+      </c>
+      <c r="V19" t="n">
         <v>355.2144</v>
       </c>
-      <c r="L19" t="n">
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="n">
         <v>1141.2319</v>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="Y19" t="n">
+        <v>337.9092</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
         <v>1167.3204</v>
       </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="n">
+        <v>249.6682</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1312.8688</v>
+      </c>
+      <c r="AE19" t="n">
         <v>309.0846</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>331.2514</v>
       </c>
     </row>
     <row r="20">
@@ -1158,1126 +1990,1906 @@
         <v>44864</v>
       </c>
       <c r="B20" t="n">
+        <v>1215.7317</v>
+      </c>
+      <c r="C20" t="n">
         <v>1269.2486</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>412.3085</v>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>360.0894</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>800.7961</v>
+      </c>
       <c r="J20" t="n">
+        <v>397.83</v>
+      </c>
+      <c r="K20" t="n">
+        <v>360.0894</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>78.5033</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>1383.6994</v>
+      </c>
+      <c r="P20" t="n">
+        <v>315.4611</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>966.9878</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
         <v>1327.8579</v>
       </c>
-      <c r="K20" t="n">
+      <c r="U20" t="n">
+        <v>790.2518</v>
+      </c>
+      <c r="V20" t="n">
         <v>500.342</v>
       </c>
-      <c r="L20" t="n">
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
         <v>1167.5983</v>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="Y20" t="n">
+        <v>332.1281</v>
+      </c>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="n">
         <v>1222.1036</v>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>374.2343</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1236.3752</v>
+      </c>
+      <c r="AE20" t="n">
         <v>371.4327</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>320.5288</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>45010</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
         <v>1150.8278</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>781.3364</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>1054.2036</v>
-      </c>
+      <c r="E21" t="n">
+        <v>342.0178</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>1222.927</v>
+      </c>
       <c r="J21" t="n">
+        <v>893.5277</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1054.2036</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>1035.716</v>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="n">
         <v>1022.5219</v>
       </c>
-      <c r="K21" t="n">
+      <c r="U21" t="n">
+        <v>1018.0893</v>
+      </c>
+      <c r="V21" t="n">
         <v>874.5633</v>
       </c>
-      <c r="L21" t="n">
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="n">
         <v>1008.8384</v>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="n">
         <v>1093.8736</v>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="n">
+        <v>312.9978</v>
+      </c>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="n">
         <v>330.0836</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>45017</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
         <v>1867.2449</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>1896.7129</v>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>1881.0737</v>
-      </c>
+      <c r="E22" t="n">
+        <v>560.6145</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>2282.6887</v>
+      </c>
       <c r="J22" t="n">
+        <v>1964.9513</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1881.0737</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="n">
         <v>1470.167</v>
       </c>
-      <c r="K22" t="n">
+      <c r="U22" t="n">
+        <v>1925.4406</v>
+      </c>
+      <c r="V22" t="n">
         <v>1452.5886</v>
       </c>
-      <c r="L22" t="n">
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="n">
         <v>1819.3974</v>
       </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="n">
         <v>1932.1771</v>
       </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="n">
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="n">
+        <v>545.1473999999999</v>
+      </c>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="n">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>45032</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
         <v>1758.9677</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>1402.3165</v>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>1744.4502</v>
-      </c>
+      <c r="E23" t="n">
+        <v>387.557</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>1891.0408</v>
+      </c>
       <c r="J23" t="n">
+        <v>1723.6145</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1744.4502</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>1216.5243</v>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="n">
         <v>1989.2363</v>
       </c>
-      <c r="K23" t="n">
+      <c r="U23" t="n">
+        <v>1326.839</v>
+      </c>
+      <c r="V23" t="n">
         <v>1149.8527</v>
       </c>
-      <c r="L23" t="n">
+      <c r="W23" t="n">
+        <v>1734.2013</v>
+      </c>
+      <c r="X23" t="n">
         <v>1659.8917</v>
       </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="n">
         <v>1566.6104</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="n">
+        <v>475.9882</v>
+      </c>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="n">
         <v>507.8625</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>45035</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
         <v>716.9539</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>963.8275</v>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="n">
-        <v>539.4879</v>
-      </c>
+      <c r="E24" t="n">
+        <v>94.4945</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>981.0989</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
+        <v>539.4879</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="n">
         <v>207.0673</v>
       </c>
-      <c r="L24" t="n">
+      <c r="W24" t="n">
+        <v>768.4709</v>
+      </c>
+      <c r="X24" t="n">
         <v>919.4534</v>
       </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="n">
         <v>136.8051</v>
       </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="n">
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="n">
+        <v>56.7604</v>
+      </c>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="n">
         <v>54.4952</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>45039</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
         <v>1241.4239</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>1151.3702</v>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
-        <v>1453.4407</v>
-      </c>
+      <c r="E25" t="n">
+        <v>312.5037</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1498.3149</v>
+      </c>
       <c r="J25" t="n">
+        <v>1513.6458</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1453.4407</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="n">
         <v>1532.3076</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="n">
+        <v>1050.7507</v>
+      </c>
+      <c r="X25" t="n">
         <v>1160.9147</v>
       </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="n">
         <v>828.7276000000001</v>
       </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="n">
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="n">
+        <v>386.507</v>
+      </c>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="n">
         <v>509.3983</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>45156</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
         <v>1145.2493</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>601.7766</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>955.1901</v>
+      </c>
+      <c r="G26" t="n">
         <v>535.8451</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>702.1272</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
+        <v>815.2773999999999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>187.7705</v>
+      </c>
+      <c r="K26" t="n">
         <v>698.966</v>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>900.4275</v>
       </c>
-      <c r="I26" t="n">
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>759.8175</v>
+      </c>
+      <c r="R26" t="n">
         <v>667.7633</v>
       </c>
-      <c r="J26" t="n">
+      <c r="S26" t="n">
+        <v>1193.0528</v>
+      </c>
+      <c r="T26" t="n">
         <v>1080.0696</v>
       </c>
-      <c r="K26" t="n">
+      <c r="U26" t="n">
+        <v>738.9201</v>
+      </c>
+      <c r="V26" t="n">
         <v>596.1033</v>
       </c>
-      <c r="L26" t="n">
+      <c r="W26" t="n">
+        <v>907.1185</v>
+      </c>
+      <c r="X26" t="n">
         <v>972.4467</v>
       </c>
-      <c r="M26" t="n">
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="n">
         <v>796.1337</v>
       </c>
-      <c r="N26" t="n">
+      <c r="AA26" t="n">
         <v>546.2432</v>
       </c>
-      <c r="O26" t="n">
+      <c r="AB26" t="n">
         <v>884.3422</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="n">
         <v>257.212</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>45159</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
         <v>1139.0135</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>403.7429</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>838.1746000000001</v>
+      </c>
+      <c r="G27" t="n">
         <v>431.3362</v>
       </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
         <v>448.0734</v>
       </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
+        <v>839.0595</v>
+      </c>
+      <c r="J27" t="n">
+        <v>847.8881</v>
+      </c>
+      <c r="K27" t="n">
         <v>427.6472</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>903.4732</v>
       </c>
-      <c r="I27" t="n">
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>882.3275</v>
+      </c>
+      <c r="R27" t="n">
         <v>445.3831</v>
       </c>
-      <c r="J27" t="n">
+      <c r="S27" t="n">
+        <v>1280.893</v>
+      </c>
+      <c r="T27" t="n">
         <v>1182.4711</v>
       </c>
-      <c r="K27" t="n">
+      <c r="U27" t="n">
+        <v>538.9263999999999</v>
+      </c>
+      <c r="V27" t="n">
         <v>587.5992</v>
       </c>
-      <c r="L27" t="n">
+      <c r="W27" t="n">
+        <v>940.0047</v>
+      </c>
+      <c r="X27" t="n">
         <v>859.1308</v>
       </c>
-      <c r="M27" t="n">
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="n">
         <v>811.6211</v>
       </c>
-      <c r="N27" t="n">
+      <c r="AA27" t="n">
         <v>871.5722</v>
       </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="n">
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="n">
         <v>165.5121</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>45163</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
         <v>1146.0517</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>396.9146</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>1345.4678</v>
+      </c>
+      <c r="G28" t="n">
         <v>409.5783</v>
       </c>
-      <c r="E28" t="n">
+      <c r="H28" t="n">
         <v>382.3745</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
+        <v>1168.4898</v>
+      </c>
+      <c r="J28" t="n">
+        <v>802.7117</v>
+      </c>
+      <c r="K28" t="n">
         <v>354.0783</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1157.4616</v>
       </c>
-      <c r="I28" t="n">
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>1057.3473</v>
+      </c>
+      <c r="R28" t="n">
         <v>518.272</v>
       </c>
-      <c r="J28" t="n">
+      <c r="S28" t="n">
+        <v>1321.375</v>
+      </c>
+      <c r="T28" t="n">
         <v>1246.9469</v>
       </c>
-      <c r="K28" t="n">
+      <c r="U28" t="n">
+        <v>506.4701</v>
+      </c>
+      <c r="V28" t="n">
         <v>545.4275</v>
       </c>
-      <c r="L28" t="n">
+      <c r="W28" t="n">
+        <v>829.5774</v>
+      </c>
+      <c r="X28" t="n">
         <v>1024.7059</v>
       </c>
-      <c r="M28" t="n">
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="n">
         <v>810.8172</v>
       </c>
-      <c r="N28" t="n">
+      <c r="AA28" t="n">
         <v>1118.9539</v>
       </c>
-      <c r="O28" t="n">
+      <c r="AB28" t="n">
         <v>1003.5604</v>
       </c>
-      <c r="P28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>45165</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
         <v>1119.3865</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="n">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>1296.3276</v>
+      </c>
+      <c r="G29" t="n">
         <v>467.1232</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>415.2011</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
+        <v>532.8855</v>
+      </c>
+      <c r="J29" t="n">
+        <v>879.1647</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>988.3913</v>
       </c>
-      <c r="I29" t="n">
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>1005.1614</v>
+      </c>
+      <c r="R29" t="n">
         <v>441.7196</v>
       </c>
-      <c r="J29" t="n">
+      <c r="S29" t="n">
+        <v>1344.9278</v>
+      </c>
+      <c r="T29" t="n">
         <v>1288.8281</v>
       </c>
-      <c r="K29" t="n">
+      <c r="U29" t="n">
+        <v>683.8812</v>
+      </c>
+      <c r="V29" t="n">
         <v>897.52</v>
       </c>
-      <c r="L29" t="n">
+      <c r="W29" t="n">
+        <v>889.8296</v>
+      </c>
+      <c r="X29" t="n">
         <v>1107.5462</v>
       </c>
-      <c r="M29" t="n">
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="n">
         <v>1156.9947</v>
       </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="n">
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="n">
         <v>968.6867999999999</v>
       </c>
-      <c r="P29" t="n">
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="n">
         <v>167.7001</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>45170</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
         <v>1045.8658</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>355.706</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>1027.7931</v>
+      </c>
+      <c r="G30" t="n">
         <v>318.8483</v>
       </c>
-      <c r="E30" t="n">
+      <c r="H30" t="n">
         <v>261.1008</v>
       </c>
-      <c r="F30" t="n">
+      <c r="I30" t="n">
+        <v>748.9771</v>
+      </c>
+      <c r="J30" t="n">
+        <v>865.3742</v>
+      </c>
+      <c r="K30" t="n">
         <v>276.7848</v>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1108.1464</v>
       </c>
-      <c r="I30" t="n">
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>973.8852000000001</v>
+      </c>
+      <c r="R30" t="n">
         <v>283.7619</v>
       </c>
-      <c r="J30" t="n">
+      <c r="S30" t="n">
+        <v>1350.7124</v>
+      </c>
+      <c r="T30" t="n">
         <v>1146.1594</v>
       </c>
-      <c r="K30" t="n">
+      <c r="U30" t="n">
+        <v>484.4117</v>
+      </c>
+      <c r="V30" t="n">
         <v>434.8696</v>
       </c>
-      <c r="L30" t="n">
+      <c r="W30" t="n">
+        <v>693.1446999999999</v>
+      </c>
+      <c r="X30" t="n">
         <v>1138.4329</v>
       </c>
-      <c r="M30" t="n">
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="n">
         <v>976.6152</v>
       </c>
-      <c r="N30" t="n">
+      <c r="AA30" t="n">
         <v>1028.6181</v>
       </c>
-      <c r="O30" t="n">
+      <c r="AB30" t="n">
         <v>922.2373</v>
       </c>
-      <c r="P30" t="n">
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="n">
         <v>139.8867</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>45172</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="n">
         <v>1042.4039</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>459.7251</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>829.6819</v>
+      </c>
+      <c r="G31" t="n">
         <v>392.7715</v>
       </c>
-      <c r="E31" t="n">
+      <c r="H31" t="n">
         <v>422.2392</v>
       </c>
-      <c r="F31" t="n">
+      <c r="I31" t="n">
+        <v>683.1934</v>
+      </c>
+      <c r="J31" t="n">
+        <v>869.7833000000001</v>
+      </c>
+      <c r="K31" t="n">
         <v>42.2277</v>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>962.5771</v>
       </c>
-      <c r="I31" t="n">
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>717.5091</v>
+      </c>
+      <c r="R31" t="n">
         <v>435.8159</v>
       </c>
-      <c r="J31" t="n">
+      <c r="S31" t="n">
+        <v>1222.8919</v>
+      </c>
+      <c r="T31" t="n">
         <v>974.0162</v>
       </c>
-      <c r="K31" t="n">
+      <c r="U31" t="n">
+        <v>516.7132</v>
+      </c>
+      <c r="V31" t="n">
         <v>521.8056</v>
       </c>
-      <c r="L31" t="n">
+      <c r="W31" t="n">
+        <v>965.2384</v>
+      </c>
+      <c r="X31" t="n">
         <v>1039.6317</v>
       </c>
-      <c r="M31" t="n">
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="n">
         <v>1133.4513</v>
       </c>
-      <c r="N31" t="n">
+      <c r="AA31" t="n">
         <v>966.2169</v>
       </c>
-      <c r="O31" t="n">
+      <c r="AB31" t="n">
         <v>989.6436</v>
       </c>
-      <c r="P31" t="n">
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="n">
         <v>176.2129</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>45177</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
         <v>866.3457</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>1182.5222</v>
+      </c>
+      <c r="G32" t="n">
         <v>304.8662</v>
       </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
         <v>282.5614</v>
       </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
+        <v>872.9625</v>
+      </c>
+      <c r="J32" t="n">
+        <v>882.7412</v>
+      </c>
+      <c r="K32" t="n">
         <v>323.4719</v>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1043.5071</v>
       </c>
-      <c r="I32" t="n">
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>894.9306</v>
+      </c>
+      <c r="R32" t="n">
         <v>350.2265</v>
       </c>
-      <c r="J32" t="n">
+      <c r="S32" t="n">
+        <v>1267.5696</v>
+      </c>
+      <c r="T32" t="n">
         <v>1179.2188</v>
       </c>
-      <c r="K32" t="n">
+      <c r="U32" t="n">
+        <v>293.0688</v>
+      </c>
+      <c r="V32" t="n">
         <v>439.8535</v>
       </c>
-      <c r="L32" t="n">
+      <c r="W32" t="n">
+        <v>561.8377</v>
+      </c>
+      <c r="X32" t="n">
         <v>931.328</v>
       </c>
-      <c r="M32" t="n">
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="n">
         <v>1080.8844</v>
       </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="n">
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="n">
         <v>937.6849</v>
       </c>
-      <c r="P32" t="n">
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="n">
         <v>168.4213</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>45179</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="n">
         <v>1261.9241</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>284.5432</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>1246.5336</v>
+      </c>
+      <c r="G33" t="n">
         <v>312.7968</v>
       </c>
-      <c r="E33" t="n">
+      <c r="H33" t="n">
         <v>275.7154</v>
       </c>
-      <c r="F33" t="n">
+      <c r="I33" t="n">
+        <v>720.5535</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1158.7902</v>
+      </c>
+      <c r="K33" t="n">
         <v>301.2491</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1082.245</v>
       </c>
-      <c r="I33" t="n">
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="n">
         <v>322.0902</v>
       </c>
-      <c r="J33" t="n">
+      <c r="S33" t="n">
+        <v>1335.0841</v>
+      </c>
+      <c r="T33" t="n">
         <v>1372.4967</v>
       </c>
-      <c r="K33" t="n">
+      <c r="U33" t="n">
+        <v>347.5133</v>
+      </c>
+      <c r="V33" t="n">
         <v>321.8917</v>
       </c>
-      <c r="L33" t="n">
+      <c r="W33" t="n">
+        <v>851.6459</v>
+      </c>
+      <c r="X33" t="n">
         <v>1147.9205</v>
       </c>
-      <c r="M33" t="n">
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="n">
         <v>1042.822</v>
       </c>
-      <c r="N33" t="n">
+      <c r="AA33" t="n">
         <v>1078.6687</v>
       </c>
-      <c r="O33" t="n">
+      <c r="AB33" t="n">
         <v>1046.5993</v>
       </c>
-      <c r="P33" t="n">
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="n">
         <v>137.1958</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>45184</v>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
         <v>119.3478</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>1151.9208</v>
+      </c>
+      <c r="G34" t="n">
         <v>332.8948</v>
       </c>
-      <c r="E34" t="n">
+      <c r="H34" t="n">
         <v>346.9982</v>
       </c>
-      <c r="F34" t="n">
+      <c r="I34" t="n">
+        <v>679.7909</v>
+      </c>
+      <c r="J34" t="n">
+        <v>904.4405</v>
+      </c>
+      <c r="K34" t="n">
         <v>339.637</v>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1113.789</v>
       </c>
-      <c r="I34" t="n">
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="n">
         <v>398.5394</v>
       </c>
-      <c r="J34" t="n">
+      <c r="S34" t="n">
+        <v>1125.8088</v>
+      </c>
+      <c r="T34" t="n">
         <v>1221.1028</v>
       </c>
-      <c r="K34" t="n">
+      <c r="U34" t="n">
+        <v>512.1129</v>
+      </c>
+      <c r="V34" t="n">
         <v>492.9662</v>
       </c>
-      <c r="L34" t="n">
+      <c r="W34" t="n">
+        <v>799.6205</v>
+      </c>
+      <c r="X34" t="n">
         <v>1131.685</v>
       </c>
-      <c r="M34" t="n">
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
         <v>967.9543</v>
       </c>
-      <c r="N34" t="n">
+      <c r="AA34" t="n">
         <v>774.0977</v>
       </c>
-      <c r="O34" t="n">
+      <c r="AB34" t="n">
         <v>844.1467</v>
       </c>
-      <c r="P34" t="n">
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="n">
         <v>235.1208</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>45186</v>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
         <v>282.8551</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>1115.8825</v>
+      </c>
+      <c r="G35" t="n">
         <v>273.8895</v>
       </c>
-      <c r="E35" t="n">
+      <c r="H35" t="n">
         <v>290.5815</v>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
+        <v>603.0599</v>
+      </c>
+      <c r="J35" t="n">
+        <v>775.6642000000001</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1029.3875</v>
       </c>
-      <c r="I35" t="n">
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="n">
         <v>352.9901</v>
       </c>
-      <c r="J35" t="n">
+      <c r="S35" t="n">
+        <v>1348.2281</v>
+      </c>
+      <c r="T35" t="n">
         <v>1228.8587</v>
       </c>
-      <c r="K35" t="n">
+      <c r="U35" t="n">
+        <v>534.8052</v>
+      </c>
+      <c r="V35" t="n">
         <v>535.5377999999999</v>
       </c>
-      <c r="L35" t="n">
+      <c r="W35" t="n">
+        <v>715.8861000000001</v>
+      </c>
+      <c r="X35" t="n">
         <v>1010.8858</v>
       </c>
-      <c r="M35" t="n">
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="n">
         <v>488.1799</v>
       </c>
-      <c r="N35" t="n">
+      <c r="AA35" t="n">
         <v>1142.8636</v>
       </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="n">
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="n">
         <v>247.3515</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>45191</v>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
         <v>462.1279</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>1236.0135</v>
+      </c>
+      <c r="G36" t="n">
         <v>281.7151</v>
       </c>
-      <c r="E36" t="n">
+      <c r="H36" t="n">
         <v>301.0338</v>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
+        <v>612.2569999999999</v>
+      </c>
+      <c r="J36" t="n">
+        <v>990.9135</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1090.1024</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>1059.9762</v>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>1401.2921</v>
+      </c>
+      <c r="T36" t="n">
         <v>1250.3187</v>
       </c>
-      <c r="K36" t="n">
+      <c r="U36" t="n">
+        <v>563.0133</v>
+      </c>
+      <c r="V36" t="n">
         <v>625.4543</v>
       </c>
-      <c r="L36" t="n">
+      <c r="W36" t="n">
+        <v>883.7609</v>
+      </c>
+      <c r="X36" t="n">
         <v>985.6082</v>
       </c>
-      <c r="M36" t="n">
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
         <v>261.5803</v>
       </c>
-      <c r="N36" t="n">
+      <c r="AA36" t="n">
         <v>919.3248</v>
       </c>
-      <c r="O36" t="n">
+      <c r="AB36" t="n">
         <v>944.0488</v>
       </c>
-      <c r="P36" t="n">
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="n">
         <v>192.8336</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>45198</v>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
         <v>461.6286</v>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>1187.4286</v>
+      </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>881.2604</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1035.116</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1155.7163</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>1192.9139</v>
+      </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>1409.1934</v>
+      </c>
+      <c r="T37" t="n">
         <v>1081.761</v>
       </c>
-      <c r="K37" t="n">
+      <c r="U37" t="n">
+        <v>506.8125</v>
+      </c>
+      <c r="V37" t="n">
         <v>589.2297</v>
       </c>
-      <c r="L37" t="n">
+      <c r="W37" t="n">
+        <v>781.5459</v>
+      </c>
+      <c r="X37" t="n">
         <v>1126.0975</v>
       </c>
-      <c r="M37" t="n">
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
         <v>1320.9188</v>
       </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="n">
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="n">
         <v>1145.0937</v>
       </c>
-      <c r="P37" t="n">
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="n">
         <v>209.9645</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>45200</v>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="n">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
         <v>736.802</v>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>1057.5588</v>
+      </c>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>755.8411</v>
+      </c>
+      <c r="J38" t="n">
+        <v>535.2131000000001</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1062.6471</v>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="n">
+        <v>682.4983</v>
+      </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="n">
+        <v>1222.1129</v>
+      </c>
+      <c r="T38" t="n">
         <v>1044.9094</v>
       </c>
-      <c r="K38" t="n">
+      <c r="U38" t="n">
+        <v>801.8605</v>
+      </c>
+      <c r="V38" t="n">
         <v>794.5353</v>
       </c>
-      <c r="L38" t="n">
+      <c r="W38" t="n">
+        <v>851.7531</v>
+      </c>
+      <c r="X38" t="n">
         <v>976.2639</v>
       </c>
-      <c r="M38" t="n">
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="n">
         <v>1023.2188</v>
       </c>
-      <c r="N38" t="n">
+      <c r="AA38" t="n">
         <v>1026.6128</v>
       </c>
-      <c r="O38" t="n">
+      <c r="AB38" t="n">
         <v>824.2567</v>
       </c>
-      <c r="P38" t="n">
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="n">
         <v>343.0212</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>45205</v>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
         <v>466.6782</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>1311.931</v>
+      </c>
+      <c r="G39" t="n">
         <v>501.3331</v>
       </c>
-      <c r="E39" t="n">
+      <c r="H39" t="n">
         <v>391.8781</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
+        <v>782.6667</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1003.7173</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1205.9647</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>1362.7256</v>
+      </c>
+      <c r="T39" t="n">
         <v>1349.9268</v>
       </c>
-      <c r="K39" t="n">
+      <c r="U39" t="n">
+        <v>535.0345</v>
+      </c>
+      <c r="V39" t="n">
         <v>456.1235</v>
       </c>
-      <c r="L39" t="n">
+      <c r="W39" t="n">
+        <v>660.7833000000001</v>
+      </c>
+      <c r="X39" t="n">
         <v>1116.7873</v>
       </c>
-      <c r="M39" t="n">
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
         <v>1358.9655</v>
       </c>
-      <c r="N39" t="n">
+      <c r="AA39" t="n">
         <v>1222.0898</v>
       </c>
-      <c r="O39" t="n">
+      <c r="AB39" t="n">
         <v>1150.1451</v>
       </c>
-      <c r="P39" t="n">
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="n">
         <v>240.4366</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>45207</v>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
         <v>439.6665</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>1231.6994</v>
+      </c>
+      <c r="G40" t="n">
         <v>381.7281</v>
       </c>
-      <c r="E40" t="n">
+      <c r="H40" t="n">
         <v>365.8344</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
+        <v>459.0784</v>
+      </c>
+      <c r="J40" t="n">
+        <v>698.0245</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1113.1174</v>
       </c>
-      <c r="I40" t="n">
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="n">
         <v>346.819</v>
       </c>
-      <c r="J40" t="n">
+      <c r="S40" t="n">
+        <v>1400.8057</v>
+      </c>
+      <c r="T40" t="n">
         <v>1259.1116</v>
       </c>
-      <c r="K40" t="n">
+      <c r="U40" t="n">
+        <v>555.1244</v>
+      </c>
+      <c r="V40" t="n">
         <v>672.7320999999999</v>
       </c>
-      <c r="L40" t="n">
+      <c r="W40" t="n">
+        <v>800.3669</v>
+      </c>
+      <c r="X40" t="n">
         <v>1116.5386</v>
       </c>
-      <c r="M40" t="n">
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="n">
         <v>1317.5238</v>
       </c>
-      <c r="N40" t="n">
+      <c r="AA40" t="n">
         <v>1109.8653</v>
       </c>
-      <c r="O40" t="n">
+      <c r="AB40" t="n">
         <v>1020.6823</v>
       </c>
-      <c r="P40" t="n">
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="n">
         <v>204.3504</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>45212</v>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
         <v>456.0132</v>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>1134.2337</v>
+      </c>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>899.8077</v>
+      </c>
+      <c r="J41" t="n">
+        <v>935.1188</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>987.1975</v>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="n">
+        <v>1271.8476</v>
+      </c>
+      <c r="T41" t="n">
         <v>1055.489</v>
       </c>
-      <c r="K41" t="n">
+      <c r="U41" t="n">
+        <v>584.8652</v>
+      </c>
+      <c r="V41" t="n">
         <v>636.7295</v>
       </c>
-      <c r="L41" t="n">
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="n">
         <v>1130.5889</v>
       </c>
-      <c r="M41" t="n">
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
         <v>1127.1236</v>
       </c>
-      <c r="N41" t="n">
+      <c r="AA41" t="n">
         <v>897.0372</v>
       </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="n">
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="n">
         <v>240.6796</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>45219</v>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="n">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
         <v>38.5169</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>769.1582</v>
+      </c>
+      <c r="G42" t="n">
         <v>308.1709</v>
       </c>
-      <c r="E42" t="n">
+      <c r="H42" t="n">
         <v>333.8992</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
+        <v>493.6864</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>700.1115</v>
       </c>
-      <c r="I42" t="n">
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="n">
         <v>318.8811</v>
       </c>
-      <c r="J42" t="n">
+      <c r="S42" t="n">
+        <v>841.7459</v>
+      </c>
+      <c r="T42" t="n">
         <v>750.0977</v>
       </c>
-      <c r="K42" t="n">
+      <c r="U42" t="n">
+        <v>304.7182</v>
+      </c>
+      <c r="V42" t="n">
         <v>297.1109</v>
       </c>
-      <c r="L42" t="n">
+      <c r="W42" t="n">
+        <v>435.4691</v>
+      </c>
+      <c r="X42" t="n">
         <v>683.6233999999999</v>
       </c>
-      <c r="M42" t="n">
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="n">
         <v>737.3031</v>
       </c>
-      <c r="N42" t="n">
+      <c r="AA42" t="n">
         <v>718.1147999999999</v>
       </c>
-      <c r="O42" t="n">
+      <c r="AB42" t="n">
         <v>652.0358</v>
       </c>
-      <c r="P42" t="n">
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="n">
         <v>255.6554</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>45221</v>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="n">
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
         <v>64.36150000000001</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>1378.1161</v>
+      </c>
+      <c r="G43" t="n">
         <v>292.6635</v>
       </c>
-      <c r="E43" t="n">
+      <c r="H43" t="n">
         <v>288.2646</v>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
+        <v>541.6309</v>
+      </c>
+      <c r="J43" t="n">
+        <v>914.0121</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1087.8895</v>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="n">
+        <v>1166.3944</v>
+      </c>
+      <c r="T43" t="n">
         <v>1181.1034</v>
       </c>
-      <c r="K43" t="n">
+      <c r="U43" t="n">
+        <v>344.9572</v>
+      </c>
+      <c r="V43" t="n">
         <v>456.258</v>
       </c>
-      <c r="L43" t="n">
+      <c r="W43" t="n">
+        <v>273.2829</v>
+      </c>
+      <c r="X43" t="n">
         <v>1072.1614</v>
       </c>
-      <c r="M43" t="n">
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="n">
         <v>1204.0893</v>
       </c>
-      <c r="N43" t="n">
+      <c r="AA43" t="n">
         <v>1124.5464</v>
       </c>
-      <c r="O43" t="n">
+      <c r="AB43" t="n">
         <v>963.3431</v>
       </c>
-      <c r="P43" t="n">
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="n">
         <v>226.7944</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>45226</v>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="n">
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
         <v>295.3885</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>1432.5413</v>
+      </c>
+      <c r="G44" t="n">
         <v>299.0826</v>
       </c>
-      <c r="E44" t="n">
+      <c r="H44" t="n">
         <v>249.5599</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
+        <v>404.6216</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1101.0395</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1117.1872</v>
       </c>
-      <c r="I44" t="n">
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="n">
         <v>36.51</v>
       </c>
-      <c r="J44" t="n">
+      <c r="S44" t="n">
+        <v>1435.0935</v>
+      </c>
+      <c r="T44" t="n">
         <v>1341.663</v>
       </c>
-      <c r="K44" t="n">
+      <c r="U44" t="n">
+        <v>303.7486</v>
+      </c>
+      <c r="V44" t="n">
         <v>772.4584</v>
       </c>
-      <c r="L44" t="n">
+      <c r="W44" t="n">
+        <v>332.4553</v>
+      </c>
+      <c r="X44" t="n">
         <v>1135.8557</v>
       </c>
-      <c r="M44" t="n">
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="n">
         <v>1293.5999</v>
       </c>
-      <c r="N44" t="n">
+      <c r="AA44" t="n">
         <v>1124.3842</v>
       </c>
-      <c r="O44" t="n">
+      <c r="AB44" t="n">
         <v>1139.6012</v>
       </c>
-      <c r="P44" t="n">
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="n">
         <v>234.2566</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>45228</v>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="n">
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
         <v>339.133</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>1463.9735</v>
+      </c>
+      <c r="G45" t="n">
         <v>309.904</v>
       </c>
-      <c r="E45" t="n">
+      <c r="H45" t="n">
         <v>107.665</v>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
+        <v>1071.6022</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1067.4791</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1353.3062</v>
       </c>
-      <c r="I45" t="n">
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="n">
         <v>417.382</v>
       </c>
-      <c r="J45" t="n">
+      <c r="S45" t="n">
+        <v>1723.4001</v>
+      </c>
+      <c r="T45" t="n">
         <v>1141.3942</v>
       </c>
-      <c r="K45" t="n">
+      <c r="U45" t="n">
+        <v>503.0094</v>
+      </c>
+      <c r="V45" t="n">
         <v>864.0398</v>
       </c>
-      <c r="L45" t="n">
+      <c r="W45" t="n">
+        <v>832.9322</v>
+      </c>
+      <c r="X45" t="n">
         <v>1390.7821</v>
       </c>
-      <c r="M45" t="n">
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="n">
         <v>1351.5252</v>
       </c>
-      <c r="N45" t="n">
+      <c r="AA45" t="n">
         <v>1175.6366</v>
       </c>
-      <c r="O45" t="n">
+      <c r="AB45" t="n">
         <v>1416.6424</v>
       </c>
-      <c r="P45" t="n">
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="n">
         <v>313.3775</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>45232</v>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="n">
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
         <v>300.0551</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>1194.3725</v>
+      </c>
+      <c r="G46" t="n">
         <v>251.599</v>
       </c>
-      <c r="E46" t="n">
+      <c r="H46" t="n">
         <v>277.1532</v>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
+        <v>925.202</v>
+      </c>
+      <c r="J46" t="n">
+        <v>973.0973</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>984.3987</v>
       </c>
-      <c r="I46" t="n">
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="n">
         <v>307.2525</v>
       </c>
-      <c r="J46" t="n">
+      <c r="S46" t="n">
+        <v>1277.882</v>
+      </c>
+      <c r="T46" t="n">
         <v>1229.304</v>
       </c>
-      <c r="K46" t="n">
+      <c r="U46" t="n">
+        <v>315.6114</v>
+      </c>
+      <c r="V46" t="n">
         <v>769.5983</v>
       </c>
-      <c r="L46" t="n">
+      <c r="W46" t="n">
+        <v>432.9307</v>
+      </c>
+      <c r="X46" t="n">
         <v>1078.4395</v>
       </c>
-      <c r="M46" t="n">
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="n">
         <v>888.9115</v>
       </c>
-      <c r="N46" t="n">
+      <c r="AA46" t="n">
         <v>1059.5691</v>
       </c>
-      <c r="O46" t="n">
+      <c r="AB46" t="n">
         <v>1073.226</v>
       </c>
-      <c r="P46" t="n">
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="n">
         <v>219.8962</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2285,87 +3897,119 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="n">
-        <v>992.6368</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1847.1832</v>
-      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
+        <v>992.6368</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1847.1832</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
         <v>1044.1788</v>
       </c>
-      <c r="H47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>561.0884</v>
       </c>
-      <c r="I47" t="n">
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="n">
         <v>554.9755</v>
       </c>
-      <c r="J47" t="n">
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="n">
         <v>1927.2716</v>
       </c>
-      <c r="K47" t="n">
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="n">
         <v>908.0529</v>
       </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="n">
         <v>1830.974</v>
       </c>
-      <c r="N47" t="n">
+      <c r="AA47" t="n">
         <v>1745.5948</v>
       </c>
-      <c r="O47" t="n">
+      <c r="AB47" t="n">
         <v>1780.2982</v>
       </c>
-      <c r="P47" t="n">
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="n">
         <v>359.3234</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>45396</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="n">
         <v>963.5742</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="n">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
         <v>739.8672</v>
       </c>
-      <c r="E48" t="n">
+      <c r="H48" t="n">
         <v>1006.3309</v>
       </c>
-      <c r="F48" t="n">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
         <v>949.6111</v>
       </c>
-      <c r="G48" t="n">
+      <c r="L48" t="n">
         <v>864.74</v>
       </c>
-      <c r="H48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>959.7043</v>
       </c>
-      <c r="I48" t="n">
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="n">
         <v>802.7245</v>
       </c>
-      <c r="J48" t="n">
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="n">
         <v>1215.846</v>
       </c>
-      <c r="K48" t="n">
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="n">
         <v>984.8203999999999</v>
       </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="n">
         <v>1080.5525</v>
       </c>
-      <c r="N48" t="n">
+      <c r="AA48" t="n">
         <v>947.0778</v>
       </c>
-      <c r="O48" t="n">
+      <c r="AB48" t="n">
         <v>789.5557</v>
       </c>
-      <c r="P48" t="n">
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="n">
         <v>386.172</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2374,78 +4018,110 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="n">
-        <v>1276.2147</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1309.288</v>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
+        <v>1276.2147</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1309.288</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1045.6991</v>
       </c>
-      <c r="I49" t="n">
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="n">
         <v>1066.2341</v>
       </c>
-      <c r="J49" t="n">
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="n">
         <v>1306.6218</v>
       </c>
-      <c r="K49" t="n">
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="n">
         <v>590.6384</v>
       </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="n">
         <v>1398.8836</v>
       </c>
-      <c r="N49" t="n">
+      <c r="AA49" t="n">
         <v>1224.6686</v>
       </c>
-      <c r="O49" t="n">
+      <c r="AB49" t="n">
         <v>1408.4696</v>
       </c>
-      <c r="P49" t="n">
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="n">
         <v>466.6028</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>45403</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="n">
         <v>1441.8581</v>
       </c>
-      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
-        <v>1087.5698</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1560.7507</v>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>830.1011999999999</v>
-      </c>
-      <c r="I50" t="n">
-        <v>820.9851</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1136.7682</v>
-      </c>
+        <v>1087.5698</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>915.604</v>
+        <v>1560.7507</v>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
+        <v>830.1011999999999</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>820.9851</v>
+      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="n">
+        <v>1136.7682</v>
+      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="n">
+        <v>915.604</v>
+      </c>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="n">
         <v>960.1721</v>
       </c>
-      <c r="O50" t="n">
+      <c r="AB50" t="n">
         <v>1524.9352</v>
       </c>
-      <c r="P50" t="n">
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="n">
         <v>332.8095</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2454,38 +4130,54 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="n">
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
         <v>1282.8062</v>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="n">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
         <v>683.8552</v>
       </c>
-      <c r="H51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>851.4505</v>
       </c>
-      <c r="I51" t="n">
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="n">
         <v>801.5333000000001</v>
       </c>
-      <c r="J51" t="n">
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="n">
         <v>1236.9172</v>
       </c>
-      <c r="K51" t="n">
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="n">
         <v>1057.1817</v>
       </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="n">
         <v>1200.6603</v>
       </c>
-      <c r="N51" t="n">
+      <c r="AA51" t="n">
         <v>1034.5003</v>
       </c>
-      <c r="O51" t="n">
+      <c r="AB51" t="n">
         <v>1296.2487</v>
       </c>
-      <c r="P51" t="n">
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="n">
         <v>430.3023</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
